--- a/src/main/resources/config.xlsx
+++ b/src/main/resources/config.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,6 +520,7 @@
     <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="22.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.21875" customWidth="1"/>
@@ -541,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -552,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -563,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -574,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -596,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -673,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>4</v>
@@ -864,7 +865,7 @@
   <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/config.xlsx
+++ b/src/main/resources/config.xlsx
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
-    <sheet name="config_2" sheetId="3" r:id="rId2"/>
-    <sheet name="config_test" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>fields</t>
   </si>
@@ -52,9 +50,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>LLLLLL</t>
-  </si>
-  <si>
     <t>JobGrade</t>
   </si>
   <si>
@@ -97,27 +92,12 @@
     <t>JJ</t>
   </si>
   <si>
-    <t>FFFFFFFF</t>
-  </si>
-  <si>
-    <t>ABSSSS</t>
-  </si>
-  <si>
     <t>AA</t>
   </si>
   <si>
-    <t>NNNNNN</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
     <t>YYYY-MM-DD</t>
   </si>
   <si>
-    <t>DDDDDDDD</t>
-  </si>
-  <si>
     <t>AB0001</t>
   </si>
   <si>
@@ -128,9 +108,6 @@
   </si>
   <si>
     <t>LLLL</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>C|P</t>
@@ -221,13 +198,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -509,17 +484,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D14"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="22.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
@@ -527,509 +502,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/resources/config.xlsx
+++ b/src/main/resources/config.xlsx
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D17"/>
+  <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
